--- a/Delo na diplomi.xlsx
+++ b/Delo na diplomi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Klemen diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2E709-7174-4793-BAEE-78BFB36B51AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A26B8A-D1B5-4F6C-A6CE-76A3BA0811E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>Delo v urah</t>
   </si>
   <si>
-    <t>štiri</t>
+    <t>3+1</t>
   </si>
 </sst>
 </file>
@@ -69,11 +69,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -359,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +509,7 @@
       <c r="B16" s="2">
         <v>45422</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -519,7 +518,7 @@
       <c r="B17" s="2">
         <v>45423</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -537,72 +536,108 @@
       <c r="B19" s="2">
         <v>45425</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>45426</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>45427</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>45428</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>45429</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>45430</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>45431</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>45432</v>
       </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>45433</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>45434</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>45435</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>45436</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
